--- a/Jobs.xlsx
+++ b/Jobs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E248"/>
+  <dimension ref="A1:H232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,21 @@
           <t>Location</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Link</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Country/State</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -477,6 +492,21 @@
           <t>New York, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>http://www.vaticinvestments.com/careers/?gh_jid=53549&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -500,6 +530,21 @@
           <t>Boston, MA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>https://arrowstreetcapital.wd5.myworkdayjobs.com/en-US/Arrowstreet?q=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,6 +568,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>https://www.hudsonrivertrading.com/careers/?_4118765=Internship&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,6 +606,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>https://www.janestreet.com/join-jane-street/position/6213528002/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -569,6 +644,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>https://www.citadel.com/careers/details/software-engineer-intern-us/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -592,6 +682,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>https://www.citadelsecurities.com/careers/open-roles/roles-for-students/?keyword=Intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -615,6 +720,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>https://fiverings.avature.net/careers/FolderDetail/New-York-New-York-United-States-Software-Developer-Intern-Summer-2023/595?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -638,6 +758,21 @@
           <t>Chicago, IL - Summer / 2023</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>https://optiver.com/working-at-optiver/career-opportunities/6173385002/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -661,6 +796,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>https://www.deshaw.com/careers/software-developer-intern-new-york-4470?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -684,6 +834,21 @@
           <t>Chicago, IL - Summer / 2023</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>https://www.jumptrading.com/careers/?titleSearch=campus+intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -707,6 +872,21 @@
           <t>Bala Cynwyd, PA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>https://careers.sig.com/search-results?keywords=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Bala Cynwyd</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -730,6 +910,21 @@
           <t>Austin, TX - Summer / 2023</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/virtu/jobs/5432329002?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>TX</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -753,6 +948,21 @@
           <t>Chicago, IL - Summer / 2023</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>https://drw.com/work-at-drw/job/software-developer-intern-2302636/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -776,6 +986,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/schonfeld?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -799,6 +1024,21 @@
           <t>Chicago, IL - Summer / 2023</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>https://imc.wd5.myworkdayjobs.com/en-US/invitation/jobs/details/Quant-Trader-Intern---Summer-2023_REQ-01963?q=internship&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -822,6 +1062,21 @@
           <t>Chicago, IL - Summer / 2023</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>https://akunacapital.com/careers?experience=intern&amp;search_term=&amp;ref=levels.fyi#careers</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -845,6 +1100,21 @@
           <t>Westport, CT - Summer / 2023</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/bridgewater89/jobs/6204813002?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Westport</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -868,6 +1138,21 @@
           <t>Los Gatos, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>https://jobs.netflix.com/intern-program?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Los Gatos</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -891,6 +1176,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/monad/jobs/4043504005?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -914,6 +1214,21 @@
           <t>Palo Alto, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>https://jpmc.fa.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1001/job/210321355?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Palo Alto</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -937,6 +1252,21 @@
           <t>Santa Clara, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>https://nvidia.wd5.myworkdayjobs.com/en-US/UniversityJobs/job/Interested-in-Internships---Software-2023_JR1961144-1?locationHierarchy1=2fcb99c455831013ea52fb338f2932d8&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Santa Clara</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -960,6 +1290,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>https://careers.twosigma.com/careers/DashJobDetail?jobId=11002&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -983,6 +1328,21 @@
           <t>Chicago, IL - Summer / 2023</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/belvederetrading/5098c277-d2a6-41eb-ab9c-b80ded219154?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1006,6 +1366,21 @@
           <t>New York, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/seveneightcapital/jobs/6304824002?gh_jid=6304824002&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>New York</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1029,6 +1404,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>https://www.goldmansachs.com/careers/students/programs/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1052,6 +1442,21 @@
           <t>Mountain View, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>https://x.company/careers-at-x/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Mountain View</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1075,6 +1480,21 @@
           <t>Santa Monica, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>https://www.snap.com/en-GB/jobs?types=Intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Santa Monica</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1098,6 +1518,21 @@
           <t>Seattle, WA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>https://www.amazon.jobs/en/jobs/2110678/software-development-engineer-internship-2023-us?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1121,6 +1556,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>https://asana.com/es/jobs/apply/4518807?gh_jid=4518807&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1144,6 +1594,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>https://www.capitalonecareers.com/search-jobs/intern/1732/1?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1167,6 +1632,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>https://careers.bcg.com/search-results?keywords=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1190,6 +1670,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/blisspointmediatinuiti/jobs/4694618?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1213,6 +1708,21 @@
           <t>Chicago, IL - Summer / 2023</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>https://www.valkyrietrading.com/careers/software-engineer-intern-summer-2023/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1236,6 +1746,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>https://we.are.expensify.com/full-stack-engineering-intern?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1259,6 +1784,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>https://www.flowtraders.com/careers/jobs/trading/amsterdam/trading-intern?date=1661299200&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1282,6 +1822,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://careers.google.com/jobs/results/?company=Google&amp;company=YouTube&amp;distance=50&amp;employment_type=FULL_TIME&amp;employment_type=INTERN&amp;employment_type=PART_TIME&amp;employment_type=TEMPORARY&amp;jex=ENTRY_LEVEL&amp;q=2022&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1305,6 +1860,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://watershed.com/jobs?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1328,6 +1898,21 @@
           <t>San Mateo, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>https://jobs.roblox.com/careers/job?domain=roblox.com&amp;pid=137451585492&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>San Mateo</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1351,6 +1936,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>https://bamfunds.wd1.myworkdayjobs.com/External/5/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1374,6 +1974,21 @@
           <t>Bay Area, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.jobs/en/search?offset=0&amp;result_limit=10&amp;sort=relevant&amp;business_category%5B%5D=amazon-web-services&amp;distanceType=Mi&amp;radius=24km&amp;latitude=&amp;longitude=&amp;loc_group_id=&amp;loc_query=&amp;base_query=2022&amp;city=&amp;country=&amp;region=&amp;county=&amp;query_options=&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Bay Area</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1397,6 +2012,21 @@
           <t>San Fransisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/twitch?ref=levels.fyi#app</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>San Fransisco</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1420,6 +2050,21 @@
           <t>Mountain View, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/atlassian?commitment=Intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Mountain View</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1443,6 +2088,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>https://careers.bloomberg.com/job/search?qf=2022&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1466,6 +2126,21 @@
           <t>Seattle, WA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/convoy/jobs/4631008004?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1489,6 +2164,21 @@
           <t>Chicago, IL - Summer / 2023</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>https://www.cutlerllc.com/careers?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>IL</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1512,6 +2202,21 @@
           <t>Palo Alto - Summer / 2023</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>https://www.rubrik.com/en/company/careers/departments/university-talent.56313?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Palo Alto</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1535,6 +2240,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://scale.com/careers/4037917005?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1558,6 +2278,21 @@
           <t>San Jose, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://www.splunk.com/view/SP-CAAAGMH?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1581,6 +2316,21 @@
           <t>Seattle, WA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>https://stripe.com/jobs/listing/software-engineering-intern/4518782?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1604,6 +2354,21 @@
           <t>Mountain View, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>https://careers.tiktok.com/position?keywords=&amp;category=&amp;location=CT_243&amp;project=&amp;type=3&amp;job_hot_flag=&amp;current=1&amp;limit=10&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Mountain View</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1627,6 +2392,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>https://career.zillowgroup.com/careers?query=intern&amp;pid=240531418207&amp;domain=zillowgroup.com&amp;triggerGoButton=false&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1650,6 +2430,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>https://www.riotgames.com/en/work-with-us/job/4522361/software-engineering-intern-los-angeles-usa?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1673,6 +2468,21 @@
           <t>Cupertino, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>https://jobs.apple.com/en-us/search?search=Software+Engineering+Internship&amp;sort=relevance&amp;location=united-states-USA&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Cupertino</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1696,6 +2506,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>https://www.okta.com/company/careers/?ref=levels.fyi#careers-job-postings</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1719,6 +2544,21 @@
           <t>Newark, NJ - Summer / 2023</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.jobs/en/jobs/2125073/audible-software-development-engineer-internship?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>NJ</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1742,6 +2582,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>https://www.mckinsey.com/careers/search-jobs?ref=levels.fyi#?query=Software%20intern</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1765,6 +2620,21 @@
           <t>Seattle, WA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>https://www.pinterestcareers.com/job-search-results/?keyword=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1788,6 +2658,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/whatnot/jobs/4604514004?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1811,6 +2696,21 @@
           <t>Mountain View, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>https://aurora.tech/careers?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Mountain View</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1834,6 +2734,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>https://careers.doordash.com/?search=intern+software&amp;ref=levels.fyi#open-positions</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1857,6 +2772,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/palantir?commitment=Internship&amp;team=Dev&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1880,6 +2810,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>https://adobe.wd5.myworkdayjobs.com/external_university/1/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1903,6 +2848,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/affirm?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1926,6 +2886,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>https://jobs.cisco.com/jobs/ProjectDetail/Full-Stack-Software-Engineer-Intern-Summer-2023-Meraki/1368018?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1949,6 +2924,21 @@
           <t>Boston, MA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>https://careers.draftkings.com/jobs/?search=intern&amp;pagesize=20&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1972,6 +2962,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>https://www.linkedin.com/jobs/view/3228834255/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1995,6 +3000,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>https://seatgeek.com/jobs/125938?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2018,6 +3038,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>https://aexp.eightfold.ai/careers/job/12787284?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2041,6 +3076,21 @@
           <t>Bellevue, NA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>https://salesforce.wd1.myworkdayjobs.com/en-US/External_Career_Site/job/California---San-Francisco/Summer-2023-Intern---Software-Engineer_JR155116-2?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Bellevue</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2064,6 +3114,21 @@
           <t>Philadelphia, PA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>https://salesforce.wd1.myworkdayjobs.com/Slack/0/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>PA</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2087,6 +3152,21 @@
           <t>Seattle, WA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>https://salesforce.wd1.myworkdayjobs.com/Tableau/3/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2110,6 +3190,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://careers.smartrecruiters.com/ServiceNow?search=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2133,6 +3228,21 @@
           <t>Mountain View, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/purestorage/jobs/4462754?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Mountain View</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2156,6 +3266,21 @@
           <t>San Mateo, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>https://careers.snowflake.com/us/en/search-results?rk=l-university-recruiting&amp;sortBy=Most+relevant&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>San Mateo</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2179,6 +3304,21 @@
           <t>Minneapolis, MN - Summer / 2023</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://jobs.ashbyhq.com/moderntreasury?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Minneapolis</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>MN</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2202,6 +3342,21 @@
           <t>Newport Beach, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>https://careers.pimco.com/careers/SearchJobs/2022?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Newport Beach</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2225,6 +3380,21 @@
           <t>Seattle, WA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>https://www.amazon.jobs/en/teams/internships-for-students?offset=0&amp;result_limit=10&amp;sort=relevant&amp;category%5B%5D=software-development&amp;distanceType=Mi&amp;radius=24km&amp;latitude=&amp;longitude=&amp;loc_group_id=&amp;loc_query=&amp;base_query=&amp;city=&amp;country=&amp;region=&amp;county=&amp;query_options=&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>WA</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2248,6 +3418,21 @@
           <t>North Reading, MA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>https://www.amazon.jobs/es/jobs/1999770/amazon-robotics-software-development-engineer-sde-intern-summer-2023?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>North Reading</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2271,6 +3456,21 @@
           <t>Irvine, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/anduril/?commitment=Internship&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2294,6 +3494,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>https://app.ripplematch.com/job/datadog/692468c7/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2317,6 +3532,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>https://www.databricks.com/company/careers/open-positions/job?gh_jid=6289910002&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2340,6 +3570,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/duolingo/jobs/6415422002?gh_src=0ffd4dd72us&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2363,6 +3608,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>https://gusto.com/about/careers?ref=levels.fyi#job-listings</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2386,6 +3646,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://secondspectrum.recruitee.com/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2409,6 +3684,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://university-uber.icims.com/jobs/116847/job?mobile=false&amp;width=1030&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=180&amp;jun1offset=240&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2432,6 +3722,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://plaid.com/careers/openings/?role=intern&amp;department=Engineering&amp;location=All+locations&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2455,6 +3760,21 @@
           <t>San Jose, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/bill?commitment=Intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2478,6 +3798,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>https://www.samsara.com/company/careers/roles?type=Intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2501,6 +3836,21 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>https://careers.abnormalsecurity.com/open-roles?gh_jid=5144585003&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2524,6 +3874,21 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>https://nomuracampus.tal.net/vx/lang-en-GB/mobile-0/appcentre-ext/brand-4/xf-3348347fc789/candidate/jobboard/vacancy/1/adv/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2547,6 +3912,21 @@
           <t>San Jose, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>https://careers.hpe.com/us/en/job/HPE1US1099693EXTERNALENUS/Software-Engineering-Intern?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2570,6 +3950,21 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>https://autodesk.wd1.myworkdayjobs.com/uni/0/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2593,14 +3988,29 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://jobs.citi.com/job/new-york/quantitative-analysis-summer-analyst-north-america-2023/287/28553736048?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>HubSpot</t>
+          <t>Klaviyo</t>
         </is>
       </c>
       <c r="C95" t="n">
@@ -2613,17 +4023,32 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Remote - Spring / 2023</t>
+          <t>Boston, MA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://angel.co/jobs?job_listing_id=2346414&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Klaviyo</t>
+          <t>Momentive</t>
         </is>
       </c>
       <c r="C96" t="n">
@@ -2636,17 +4061,32 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Boston, MA - Summer / 2023</t>
+          <t>San Mateo, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://www.momentive.ai/en/careers/dept/engineering/?ut_source2=en%2Fcareers&amp;ut_source3=inline&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>San Mateo</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Momentive</t>
+          <t>Verkada</t>
         </is>
       </c>
       <c r="C97" t="n">
@@ -2662,14 +4102,29 @@
           <t>San Mateo, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/verkada?department=Engineering&amp;ref=levels.fyi#:~:text=SOFTWARE%20%2D%20CORE%20COMMAND-,SOFTWARE%20%2D%20EARLY%20CAREERS,-APPLY</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>San Mateo</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Verkada</t>
+          <t>Yext</t>
         </is>
       </c>
       <c r="C98" t="n">
@@ -2682,21 +4137,36 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>San Mateo, CA - Summer / 2023</t>
+          <t>Washington, D.C. - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/yext/jobs/4474989?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Washington</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>D.C.</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Yext</t>
+          <t>IBM</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>50</v>
+        <v>49.72</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2705,21 +4175,36 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Washington, D.C. - Summer / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>https://careers.ibm.com/job/16478329/firmware-developer-summer-intern-2023-remote/?codes=IBM_CareerWebSite&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>IBM</t>
+          <t>Redfin</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>49.72</v>
+        <v>49.5</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2728,21 +4213,36 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Seattle, WA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>https://redfin.wd1.myworkdayjobs.com/en-US/redfin_careers/job/Software-Developer--2023-Internship_49169-1?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Redfin</t>
+          <t>Blackstone</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>49.5</v>
+        <v>49.48</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2751,21 +4251,36 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Seattle, WA - Summer / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>https://blackstone.wd1.myworkdayjobs.com/en-US/Blackstone_Campus_Careers/job/XMLNAME-2023-Blackstone-Technology-and-Innovations--Software-Developer-Summer-Analyst--New-York-_23913?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Blackstone</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>49.48</v>
+        <v>49.21</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2774,21 +4289,36 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>https://careers.microsoft.com/us/en/job/1388845?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Dropbox</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>49.21</v>
+        <v>49.04</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2797,17 +4327,32 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>Houston, TX - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>https://www.dropbox.com/jobs/all-jobs?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Houston</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>TX</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Dropbox</t>
+          <t>Figma</t>
         </is>
       </c>
       <c r="C104" t="n">
@@ -2820,17 +4365,32 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Houston, TX - Summer / 2023</t>
+          <t>San Francisco, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/figma/jobs/4595340004?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Figma</t>
+          <t>Zoox</t>
         </is>
       </c>
       <c r="C105" t="n">
@@ -2846,18 +4406,33 @@
           <t>San Francisco, CA - Summer / 2023</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>https://www.zoox.com/careers/?commitment=internship-co-op&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Sentry</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>49.04</v>
+        <v>48.7</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2866,21 +4441,36 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Bay Area, CA - Fall / 2023</t>
+          <t>San Jose, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>https://jobs.cisco.com/jobs/ProjectDetail/Software-Engineer-I-Intern-United-States/1380727?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Zoox</t>
+          <t>Chewy</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>49.04</v>
+        <v>51</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2889,21 +4479,36 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>San Francisco, CA - Summer / 2023</t>
+          <t>Boston, MA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>https://careers.chewy.com/us/en/search-results?keywords=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Cisco</t>
+          <t>BNY Mellon</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2912,21 +4517,36 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>San Jose, CA - Summer / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>https://jobs.bnymellon.com/jobs?keywords=intern&amp;page=1&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chewy</t>
+          <t>Credit Suisse</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>51</v>
+        <v>48.08</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -2935,21 +4555,36 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Boston, MA - Summer / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>https://tas-creditsuisse.taleo.net/careersection/campus/moresearch.ftl?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>BNY Mellon</t>
+          <t>Waymo</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>48.5</v>
+        <v>48.08</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2958,21 +4593,36 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Mountain View, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>https://waymo.com/careers/?ref=levels.fyi#roles</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Mountain View</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Credit Suisse</t>
+          <t>Flatiron Health</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>48.08</v>
+        <v>48</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2982,20 +4632,35 @@
       <c r="E111" t="inlineStr">
         <is>
           <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>https://flatiron.com/careers/open-positions/4454681?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Tatari</t>
+          <t>Gap</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>48.08</v>
+        <v>48</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -3004,21 +4669,36 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>New York City, NY - Winter / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>https://www.gapinc.com/en-us/careers/job-search?currentpage=1&amp;query=gaptech&amp;currentPage=1&amp;sort=score&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Waymo</t>
+          <t>Mathworks</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>48.08</v>
+        <v>48</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -3027,17 +4707,32 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Mountain View, CA - Summer / 2023</t>
+          <t>Natick, MA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>https://www.mathworks.com/company/jobs/opportunities/search?%3Fjob_type_id%255b%255d=1755&amp;posting_org_id%5B%5D=1&amp;posting_team_id%5B%5D=18&amp;posting_team_id%5B%5D=22&amp;posting_team_id%5B%5D=21&amp;posting_team_id%5B%5D=20&amp;job_type_id%5B%5D=1755&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Natick</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Flatiron Health</t>
+          <t>Peloton</t>
         </is>
       </c>
       <c r="C114" t="n">
@@ -3053,14 +4748,29 @@
           <t>New York City, NY - Summer / 2023</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>https://careers.onepeloton.com/en/all-jobs/?search=intern&amp;pagesize=20&amp;ref=levels.fyi#results</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>NY</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Gap</t>
+          <t>Robinhood</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -3076,18 +4786,33 @@
           <t>Remote - Summer / 2023</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>https://robinhood.com/us/en/careers/openings/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Mathworks</t>
+          <t>G-Research</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>48</v>
+        <v>47.08</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -3096,21 +4821,36 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Natick, MA - Summer / 2023</t>
+          <t>London, Unite Kingdom - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>https://www.gresearch.co.uk/join-us/graduates/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Unite Kingdom</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Peloton</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>48</v>
+        <v>46.88</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -3119,21 +4859,36 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Palo Alto, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>https://www.tesla.com/careers/search/job/system-software-engineering-internship-spring-2023-136522?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Palo Alto</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Robinhood</t>
+          <t>C3.Ai</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>48</v>
+        <v>46.15</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -3142,21 +4897,36 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>Redwood City, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>https://c3.ai/careers/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Redwood City</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>G-Research</t>
+          <t>Khan Academy</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>47.08</v>
+        <v>46.15</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -3165,21 +4935,36 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>London, Unite Kingdom - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>https://www.khanacademy.org/careers?ref=levels.fyi#openings</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>QuantCo</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>46.88</v>
+        <v>46.15</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -3188,21 +4973,36 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Palo Alto, CA - Summer / 2023</t>
+          <t>Zurich, Switzerland - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/quantco-/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Zurich</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C3.Ai</t>
+          <t>HashiCorp</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>46.15</v>
+        <v>46</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -3211,21 +5011,36 @@
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Redwood City, CA - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>https://www.hashicorp.com/jobs/interns?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Khan Academy</t>
+          <t>Intuit</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>46.15</v>
+        <v>46</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -3234,21 +5049,36 @@
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>San Diego, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>https://jobs.intuit.com/job/-/-/27595/33672146000?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>San Diego</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>QuantCo</t>
+          <t>Palo Alto Networks</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>46.15</v>
+        <v>46</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -3257,17 +5087,32 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Zurich, Switzerland - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>https://jobs.paloaltonetworks.com/job-search-results/?keyword=Intern&amp;category%5B%5D=Internships&amp;compliment=Americas&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Intuit</t>
+          <t>PayPal</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -3280,21 +5125,36 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>San Diego, CA - Summer / 2023</t>
+          <t>San Jose, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>https://jobsearch.paypal-corp.com/en-US/search?keywords=intern&amp;facetcountry=us&amp;location=&amp;facetcategory=internship&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>San Jose</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Palo Alto Networks</t>
+          <t>Bank of America</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>46</v>
+        <v>45.5</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -3303,21 +5163,36 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>https://campus.bankofamerica.com/careers/global_technology_summer_analyst_program__2023.html?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PayPal</t>
+          <t>AT&amp;T</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -3326,21 +5201,36 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>San Jose, CA - Summer / 2023</t>
+          <t>Middletown, NJ - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>https://www.att.jobs/technology-development-program?ref=levels.fyi#internship</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Middletown</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>NJ</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Bank of America</t>
+          <t>Deepgram</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>45.5</v>
+        <v>45</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -3349,17 +5239,32 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Ann Arbor, MI - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/deepgram/a0729dbc-659e-45ae-bdd6-2c645afc1488?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Ann Arbor</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>MI</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AT&amp;T</t>
+          <t>Expedia Group</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -3372,17 +5277,32 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Middletown, NJ - Summer / 2023</t>
+          <t>Seattle, WA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://lifeatexpediagroup.com/jobs?keyword=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Deepgram</t>
+          <t>Intel</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -3395,17 +5315,32 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ann Arbor, MI - Summer / 2023</t>
+          <t>Toronto, Canada - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>https://jobs.intel.com/page/show/search-results?ref=levels.fyi#q=intern&amp;t=Jobs&amp;sort=relevancy&amp;layout=table</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Canada</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Expedia Group</t>
+          <t>Nike</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -3418,17 +5353,32 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Seattle, WA - Summer / 2023</t>
+          <t>Beaverton, OR - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>https://jobs.nike.com/internships?jobSearch=true&amp;jsKeywords%5B0%5D=internship&amp;jsOffset=0&amp;jsSort=posting_start_date&amp;jsLanguage=en&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Beaverton</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>realtor.com</t>
         </is>
       </c>
       <c r="C131" t="n">
@@ -3441,17 +5391,32 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Toronto, Canada - Summer / 2023</t>
+          <t>Chicago, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>https://careers.realtor.com/job-search-results/?keyword=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Nike</t>
+          <t>Zendesk</t>
         </is>
       </c>
       <c r="C132" t="n">
@@ -3464,21 +5429,36 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Beaverton, OR - Summer / 2023</t>
+          <t>Remote, USA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>https://jobs.zendesk.com/us/en/search-results?keywords=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Philips</t>
+          <t>Appian</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -3487,21 +5467,36 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Cambridge, MA - Spring / 2023</t>
+          <t>McLean, VA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>https://careers.appian.com/jobs/?search=intern&amp;location=&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>McLean</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>VA</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>realtor.com</t>
+          <t>F5 Networks</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -3510,21 +5505,36 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Chicago, IL - Summer / 2023</t>
+          <t>Seattle, WA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://ffive.wd5.myworkdayjobs.com/en-US/f5jobs/job/Seattle/Summer-2023-Internship---Software-Engineering_RP1026625?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Zendesk</t>
+          <t>Morgan Stanley</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>45</v>
+        <v>43.27</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -3533,21 +5543,36 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Remote, USA - Summer / 2023</t>
+          <t>Alpharetta, GA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>https://www.morganstanley.com/careers/students-graduates/opportunities/12941?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Alpharetta</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>GA</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>303</v>
+        <v>321</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Appian</t>
+          <t>Qualtrics</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>44</v>
+        <v>42.07</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -3556,21 +5581,36 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>McLean, VA - Summer / 2023</t>
+          <t>Seattle, WA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>https://www.qualtrics.com/careers/us/en/search-results?m=3&amp;keywords=summer+intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>F5 Networks</t>
+          <t>Epic Systems</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -3579,21 +5619,36 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Seattle, WA - Summer / 2023</t>
+          <t>Madison, WI - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>https://epic.avature.net/Careers/FolderDetail/Software-Developer-Intern---Summer-2023/22544?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Madison</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>WI</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Morgan Stanley</t>
+          <t>Verisk</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>43.27</v>
+        <v>42</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -3602,21 +5657,36 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Alpharetta, GA - Summer / 2023</t>
+          <t>Jersey City, NJ - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>https://careers.smartrecruiters.com/Verisk/?search=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Jersey City</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>NJ</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Qualtrics</t>
+          <t>MongoDB</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>42.07</v>
+        <v>41</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -3625,21 +5695,36 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Seattle, WA - Summer / 2023</t>
+          <t>Austin, TX - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://www.mongodb.com/careers/positions?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>TX</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Epic Systems</t>
+          <t>Oracle</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -3648,21 +5733,36 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Madison, WI - Summer / 2023</t>
+          <t>Austin, TX - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://eeho.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX_1/requisitions?keyword=engineering+intern&amp;lastSelectedFacet=AttributeChar4&amp;selectedFlexFieldsFacets=%22AttributeChar4%7CStudent%2FIntern%22&amp;selectedLocationsFacet=300000000149325&amp;selectedPostingDatesFacet=30&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>TX</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Verisk</t>
+          <t>PwC</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -3671,21 +5771,36 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Jersey City, NJ - Summer / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>https://jobs.us.pwc.com/search-jobs/internship/932/1?fl=6252001%2C4566966&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>330</v>
+        <v>363</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MongoDB</t>
+          <t>Hyannis Port Research</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -3694,21 +5809,36 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Austin, TX - Summer / 2023</t>
+          <t>Needham, MA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>https://hyannisportresearch.com/careers/?ref=levels.fyi#modal-5264778003</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Needham</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Oracle</t>
+          <t>Juniper Networks</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -3717,21 +5847,36 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Austin, TX - Summer / 2023</t>
+          <t>Sunnyvale, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>https://careers.juniper.net/?ref=levels.fyi#/</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Sunnyvale</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>PwC</t>
+          <t>MarketAxess</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -3741,20 +5886,35 @@
       <c r="E144" t="inlineStr">
         <is>
           <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>https://careers.smartrecruiters.com/MarketAxess?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>CertiK</t>
+          <t>MasterCard</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>40.38</v>
+        <v>40</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -3763,17 +5923,32 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>New York City, NY (Remote) - Winter / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://mastercard.jobs/jobs/?q=intern&amp;location=New+York&amp;ref=levels.fyi#2</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Charles River Development</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="C146" t="n">
@@ -3786,21 +5961,36 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Remote - Spring / 2023</t>
+          <t>San Francisco, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://www.wellsfargojobs.com/search-jobs/intern?orgIds=1251&amp;kt=1&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>San Francisco</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>363</v>
+        <v>395</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Hyannis Port Research</t>
+          <t>West Monroe</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3809,21 +5999,36 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Needham, MA - Summer / 2023</t>
+          <t>Chicago, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>https://www.wayup.com/s/internships/engineering/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>366</v>
+        <v>402</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Juniper Networks</t>
+          <t>Lumen</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3832,21 +6037,36 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sunnyvale, CA - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>https://jobs.lumen.com/global/en/search-results?keywords=internship&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>368</v>
+        <v>404</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MarketAxess</t>
+          <t>Paramount</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -3855,21 +6075,36 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Los Angeles, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>https://careers.paramount.com/job/Burbank-Software-Engineering-Internships-Summer-2023-(Mobile,-Video,-Web,-UI)-CA-91505/930475300/?feedId=340900&amp;utm_source=LinkedInJobPostings&amp;utm_campaign=ViacomCBS_LinkedIn&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Los Angeles</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>369</v>
+        <v>405</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MasterCard</t>
+          <t>Prudential Financial</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -3878,21 +6113,36 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Newark, NJ - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>https://prudential.eightfold.ai/careers?pid=12393231&amp;Job+Category=Technology&amp;location_country=US&amp;early_talent=Summer+Internships&amp;domain=prudential.com&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Newark</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>NJ</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Publicis Sapient</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3901,21 +6151,36 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>San Francisco, CA - Summer / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>https://careers.publicissapient.com/job-search?q=intern&amp;experienceLevel=Internship&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>West Monroe</t>
+          <t>Silicon Labs</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3924,21 +6189,36 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Chicago, IL - Summer / 2023</t>
+          <t>Boston, MA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>https://jobs.jobvite.com/silabs/search?q=intern&amp;l=&amp;c=&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Lumen</t>
+          <t>Walmart Global Tech</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3947,21 +6227,36 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>Sunnyvale, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>https://careers.walmart.com/results?q=2021&amp;page=1&amp;sort=rank&amp;jobCategory=00000159-75a3-d286-a3f9-7fa3cf810000%2C00000161-7bf4-da32-a37b-fbf7c59e0000&amp;jobSubCategory=0000015a-a52c-d06d-af5f-f5bfce780000&amp;expand=department%2Cbrand%2Ctype%2Crate&amp;type=jobs&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Sunnyvale</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Paramount</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -3970,21 +6265,36 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Los Angeles, CA - Summer / 2023</t>
+          <t>Sunnyvale, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://walmart.wd5.myworkdayjobs.com/en-us/walmartexternal/job/us-ar-bentonville-home-office-isd-office---dgtc/xmlname-2022-summer-intern--software-engineer-ii_r-682495?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Sunnyvale</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Prudential Financial</t>
+          <t>Grainger</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -3993,21 +6303,36 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Newark, NJ - Summer / 2023</t>
+          <t>Chicago, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://jobs.grainger.com/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>406</v>
+        <v>432</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Publicis Sapient</t>
+          <t>Asurion</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -4016,21 +6341,36 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Nashville,TN - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://careers.asurion.com/ListJobs/?keyword=Software+Engineer+Intern&amp;fuzzy=false&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Nashville</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>TN</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Silicon Labs</t>
+          <t>Geneva Trading</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -4039,21 +6379,36 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Boston, MA - Summer / 2023</t>
+          <t>Chicago, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>https://jobs.jobvite.com/genevatrading/job/ovNWkfwi?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Walmart Global Tech</t>
+          <t>Kohl's</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>37.5</v>
+        <v>35</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -4062,21 +6417,36 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sunnyvale, CA - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>https://careers.kohls.com/internships/technology-digital?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>419</v>
+        <v>455</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>ZS Associates</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>37</v>
+        <v>34.62</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -4085,21 +6455,36 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sunnyvale, CA - Summer / 2023</t>
+          <t>Evanston, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>https://jobs.zs.com/all/jobs?keywords=Intern&amp;page=1&amp;sortBy=relevance&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Evanston</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>General Electric</t>
+          <t>Factset</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>36</v>
+        <v>34.38</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -4108,21 +6493,36 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Rochester, NY - Spring / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>https://factset.wd1.myworkdayjobs.com/FactSetCareers/0/refreshFacet/318c8bb6f553100021d223d9780d30be?__hstc=226296197.31250d281415e77d3b27dccff4fdcd16.1622212026035.1622212026035.1622212026035.1&amp;__hssc=226296197.2.1622212026035&amp;__hsfp=656858325&amp;hsCtaTracking=5bad2784-dc05-40fe-a68d-fee1a12cdc9b%7C397e76f1-32f7-4fbf-bd20-d38c0c14c7a9&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Grainger</t>
+          <t>Target</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -4131,21 +6531,36 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Chicago, IL - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>https://jobs.target.com/job/brooklyn-park/software-engineering-intern-hybrid-starting-june-2023/1118/34525104848?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>432</v>
+        <v>469</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Asurion</t>
+          <t>Visa</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -4154,21 +6569,36 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Nashville,TN - Summer / 2023</t>
+          <t>Foster City, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>https://usa.visa.com/careers.html?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Foster City</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Geneva Trading</t>
+          <t>Cigna</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>35</v>
+        <v>33.75</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -4177,21 +6607,36 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Chicago, IL - Summer / 2023</t>
+          <t>Philadelphia, PA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>https://careers.ciena.com/us/en/search-results?m=3&amp;keywords=Intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Philadelphia</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>443</v>
+        <v>476</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Kohl's</t>
+          <t>Discover</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -4200,21 +6645,36 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>Riverwoods, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>https://jobs.discover.com/job-search/?keyword=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Riverwoods</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ZS Associates</t>
+          <t>Genuine Parts Company</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>34.62</v>
+        <v>33</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -4223,21 +6683,36 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Evanston, IL - Summer / 2023</t>
+          <t>Atlanta, GA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>https://jobs.genpt.com/search-jobs/intern/505/1?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>GA</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Factset</t>
+          <t>Optum</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>34.38</v>
+        <v>33</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -4246,21 +6721,36 @@
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Boston, MA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>https://careers.unitedhealthgroup.com/job-search-results/?keyword=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>468</v>
+        <v>485</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Target</t>
+          <t>OSIsoft</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>34</v>
+        <v>32.4</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -4269,21 +6759,36 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>Scottsdale, AZ - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>https://osisoft.wd1.myworkdayjobs.com/osisoft_careers/1/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Scottsdale</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>AZ</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>469</v>
+        <v>486</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Visa</t>
+          <t>Collins Aerospace</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>34</v>
+        <v>32.36</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -4292,21 +6797,36 @@
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Foster City, CA - Summer / 2023</t>
+          <t>Richardson, TX - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>https://jobs.collinsaerospace.com/search-jobs?orgIds=1738&amp;ac=617&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>Richardson</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>TX</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>BNSF Railway</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>33.75</v>
+        <v>32.31</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -4315,21 +6835,36 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Philadelphia, PA - Summer / 2023</t>
+          <t>Fort Worth, TX - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>https://jobs.bnsf.com/search/?q=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>Fort Worth</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>TX</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Discover</t>
+          <t>Accenture</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -4338,21 +6873,36 @@
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Riverwoods, IL - Summer / 2023</t>
+          <t>Atlanta, GA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>https://www.accenture.com/us-en/careers/jobsearch?jk=intern&amp;sb=0&amp;pg=1&amp;vw=1&amp;is_rj=0&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>GA</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Genuine Parts Company</t>
+          <t>Deloitte</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -4361,21 +6911,36 @@
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Atlanta, GA - Summer / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>https://apply.deloitte.com/careers/SearchJobs?sort=relevancy&amp;3_5_3=478&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Optum</t>
+          <t>Esri</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -4384,21 +6949,36 @@
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Boston, MA - Summer / 2023</t>
+          <t>Redlands, California - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>https://www.esri.com/careers/software-development-and-engineering-2021-internships-13003?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Redlands</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>California</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>OSIsoft</t>
+          <t>Qualcomm</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>32.4</v>
+        <v>32</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -4407,21 +6987,36 @@
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Scottsdale, AZ - Summer / 2023</t>
+          <t>Toronto, Canada - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>https://qualcomm.wd5.myworkdayjobs.com/External/2/refreshFacet/318c8bb6f553100021d223d9780d30be?src=LinkedInJobs&amp;source=Linkedin&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Canada</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Collins Aerospace</t>
+          <t>Skyworks Solutions</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>32.36</v>
+        <v>32</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -4430,21 +7025,36 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Richardson, TX - Summer / 2023</t>
+          <t>Hillsboro, OR - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>https://careers.skyworksinc.com/search/?createNewAlert=false&amp;q=intern&amp;locationsearch=&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Hillsboro</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>OR</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>487</v>
+        <v>501</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BNSF Railway</t>
+          <t>Raytheon</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>32.31</v>
+        <v>31.89</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -4453,21 +7063,36 @@
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Fort Worth, TX - Summer / 2023</t>
+          <t>Boston, MA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>https://jobs.rtx.com/search-jobs/intern?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Accenture</t>
+          <t>Dell</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>32</v>
+        <v>31.8</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -4476,21 +7101,36 @@
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Atlanta, GA - Summer / 2023</t>
+          <t>Hopkinton, MA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://jobs.dell.com/category/internship-jobs/375/24213/1?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Hopkinton</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>491</v>
+        <v>506</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Deloitte</t>
+          <t>Ford</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>32</v>
+        <v>31.15</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -4499,21 +7139,36 @@
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://sjobs.brassring.com/TGnewUI/Search/home/HomeWithPreLoad?partnerid=25385&amp;siteid=5311&amp;PageType=searchResults&amp;SearchType=linkquery&amp;LinkID=3974233&amp;ref=levels.fyi#keyWordSearch=intern</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Esri</t>
+          <t>Dialexa</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -4522,21 +7177,36 @@
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Redlands, California - Summer / 2023</t>
+          <t>Dallas, TX - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.dialexa.com/careers?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Dallas</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>TX</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Qualcomm</t>
+          <t>Freddie Mac</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -4545,21 +7215,36 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Toronto, Canada - Summer / 2023</t>
+          <t>McLean, VA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://careers.freddiemac.com/us/en/job/JR7788/Multifamily-Software-Developer-Intern-Hybrid-or-Remote-Work-Schedule?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>McLean</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>VA</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Skyworks Solutions</t>
+          <t>Georgia Pacific</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -4568,21 +7253,36 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Hillsboro, OR - Summer / 2023</t>
+          <t>Atlanta, GA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://jobs.kochcareers.com/search/jobs?cfm10=&amp;location=&amp;ns_cfm4=&amp;ns_currentlocale=en&amp;q=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>GA</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>501</v>
+        <v>526</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Raytheon</t>
+          <t>Graham Capital Management</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>31.89</v>
+        <v>30</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -4591,21 +7291,36 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Boston, MA - Summer / 2023</t>
+          <t>Norwalk, CT - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/grahamcapitalmanagement/jobs/4085841005?gh_jid=4085841005&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Norwalk</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>CT</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>502</v>
+        <v>530</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Dell</t>
+          <t>Illumina</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>31.8</v>
+        <v>30</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -4614,21 +7329,36 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Hopkinton, MA - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://illumina.wd1.myworkdayjobs.com/illumina-universityrecruiting/3/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Ford</t>
+          <t>Koch</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>31.15</v>
+        <v>30</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -4637,21 +7367,36 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>Atlanta, GA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://jobs.kochcareers.com/search/jobs?cfm10=&amp;location=&amp;ns_cfm4=&amp;ns_currentlocale=en&amp;q=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>GA</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>509</v>
+        <v>535</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Keysight</t>
+          <t>Liberty Mutual</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -4660,17 +7405,32 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Remote - Winter / 2023</t>
+          <t>Seattle, WA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>https://jobs.libertymutualgroup.com/search-jobs/?keyword=2022&amp;level=Campus&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>519</v>
+        <v>543</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Dialexa</t>
+          <t>Paylocity</t>
         </is>
       </c>
       <c r="C185" t="n">
@@ -4683,21 +7443,36 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Dallas, TX - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://www.paylocity.com/careers/career-opportunities/early-career/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>520</v>
+        <v>560</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ecolab</t>
+          <t>Lockheed Martin</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>30</v>
+        <v>29.65</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -4706,21 +7481,36 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>St Paul, MN - Spring / 2023</t>
+          <t>King of Prussia, PA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://www.lockheedmartinjobs.com/search-jobs/ALL?orgIds=694&amp;alp=ALL&amp;alt=0&amp;ascf=%5B%7B%22Key%22%3A%22job_status%22%2C%22Value%22%3A%22Co-op%2FSummer+Intern%22%7D%5D&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>King of Prussia</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>523</v>
+        <v>561</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Freddie Mac</t>
+          <t>Merck</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>30</v>
+        <v>29.48</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -4729,21 +7519,36 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>McLean, VA - Summer / 2023</t>
+          <t>Rahway, NJ - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://jobs.merck.com/us/en/search-results?keywords=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Rahway</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>NJ</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>525</v>
+        <v>562</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Georgia Pacific</t>
+          <t>ADP</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -4752,21 +7557,36 @@
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Atlanta, GA - Summer / 2023</t>
+          <t>Alpharetta, GA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://jobs.adp.com/job-search-results/?category%5B%5D=Intern%2FCo-Op&amp;language=en&amp;location=United+States&amp;country=US&amp;radius=200&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Alpharetta</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>GA</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>526</v>
+        <v>563</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Graham Capital Management</t>
+          <t>CNH Industrial</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -4775,21 +7595,36 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Norwalk, CT - Summer / 2023</t>
+          <t>Burr Ridge, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://careers-cnhind.icims.com/jobs/search?ss=1&amp;searchKeyword=intern&amp;searchRelation=keyword_all&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>Burr Ridge</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Illumina</t>
+          <t>Expedition Technology</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -4798,21 +7633,36 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>Herndon, VA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://www.exptechinc.com/pages/careers/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>Herndon</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>VA</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Koch</t>
+          <t>L3Harris Technologies</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -4821,21 +7671,36 @@
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Atlanta, GA - Summer / 2023</t>
+          <t>Palm Bay, FL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://careers.l3harris.com/job/-/-/4832/33828250528?src=SNS-10240&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>Palm Bay</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>FL</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Liberty Mutual</t>
+          <t>PepsiCo</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -4844,21 +7709,36 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Seattle, WA - Summer / 2023</t>
+          <t>Purchase, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>https://www.pepsicojobs.com/student/jobs?keywords=engineering+intern&amp;sortBy=relevance&amp;page=1&amp;limit=100&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Purchase</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>543</v>
+        <v>571</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Paylocity</t>
+          <t>UnitedHealth Group</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -4867,21 +7747,36 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>Irvine, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://careers.unitedhealthgroup.com/job-search-results/?keyword=intern+software&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Irvine</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lockheed Martin</t>
+          <t>General Motors</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>29.65</v>
+        <v>28.85</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -4890,21 +7785,36 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>King of Prussia, PA - Summer / 2023</t>
+          <t>Austin, TX - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://search-careers.gm.com/jobs-at-gm/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>TX</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Merck</t>
+          <t>Neighbor</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>29.48</v>
+        <v>28.85</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -4913,21 +7823,36 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Rahway, NJ - Summer / 2023</t>
+          <t>Lehi, UT - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://jobs.lever.co/neighbor/17671a1c-e487-44cb-934a-2ca06b65f070?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Lehi</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>UT</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ADP</t>
+          <t>Medtronic</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -4936,21 +7861,36 @@
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Alpharetta, GA - Summer / 2023</t>
+          <t>Littleton, MA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://jobs.medtronic.com/jobs/search/106431002?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Littleton</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>MA</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>563</v>
+        <v>588</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CNH Industrial</t>
+          <t>BAE Systems</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -4959,21 +7899,36 @@
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Burr Ridge, IL - Summer / 2023</t>
+          <t>San Diego, CA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://jobs.baesystems.com/global/en/c/engineering-technology-jobs?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>San Diego</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>CA</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>564</v>
+        <v>591</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Expedition Technology</t>
+          <t>Boeing</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -4982,21 +7937,36 @@
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Herndon, VA - Summer / 2023</t>
+          <t>Missouri - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://jobs.boeing.com/category/internship-jobs/185-18469/9287/1?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Missouri</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>566</v>
+        <v>592</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>L3Harris Technologies</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -5005,21 +7975,36 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Palm Bay, FL - Summer / 2023</t>
+          <t>Olathe, KS - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://careers-us.garmin.com/us/en/internship-jobs?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Olathe</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>KS</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>568</v>
+        <v>594</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>PepsiCo</t>
+          <t>Leidos</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -5028,21 +8013,36 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Purchase, NY - Summer / 2023</t>
+          <t>Tampa, FL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://careers.leidos.com/search/intern/jobs?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Tampa</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>FL</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>571</v>
+        <v>598</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>UnitedHealth Group</t>
+          <t>Nuance</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -5051,21 +8051,36 @@
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Irvine, CA - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://nuance.wd1.myworkdayjobs.com/Nuance/1/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>575</v>
+        <v>600</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>General Motors</t>
+          <t>Principal Financial Group</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>28.85</v>
+        <v>28</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -5074,21 +8089,36 @@
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Austin, TX - Summer / 2023</t>
+          <t>Des Moines, IA or Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://careers-principal.icims.com/jobs/search?ss=1&amp;searchKeyword=intern&amp;searchRelation=keyword_all&amp;searchPositionType=18043&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Des Moines</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>IA or Remote</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>576</v>
+        <v>601</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Neighbor</t>
+          <t>Starbucks</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>28.85</v>
+        <v>28</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -5097,21 +8127,36 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Lehi, UT - Summer / 2023</t>
+          <t>Seattle, WA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://starbucks.taleo.net/careersection/1000222/jobdetail.ftl?lang=en&amp;job=220049745&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Seattle</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>WA</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>583</v>
+        <v>602</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Medtronic</t>
+          <t>State Farm</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -5120,21 +8165,36 @@
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Littleton, MA - Summer / 2023</t>
+          <t>Richardson, TX - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>https://jobs.statefarm.com/main/jobs?keywords=intern&amp;sortBy=relevance&amp;page=1&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Richardson</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>TX</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>588</v>
+        <v>608</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>BAE Systems</t>
+          <t>Caterpillar</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -5143,21 +8203,36 @@
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>San Diego, CA - Summer / 2023</t>
+          <t>Chicago, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://careers.caterpillar.com/en/jobs/?searchTerm=intern&amp;pagesize=20&amp;ref=levels.fyi#results</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>590</v>
+        <v>612</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>BHG Financial</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -5166,21 +8241,36 @@
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Remote - Spring / 2023</t>
+          <t>Cleveland, OH - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://careers.pnc.com/global/en/job/PNC1GLOBALR112729/Technology-Summer-Intern-Program?utm_source=symphonytalentmpx&amp;utm_medium=phenom-feeds&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>Cleveland</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>OH</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Boeing</t>
+          <t>National Instruments</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -5189,21 +8279,36 @@
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Missouri - Summer / 2023</t>
+          <t>Austin, TX - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://pef.fa.us1.oraclecloud.com/hcmUI/CandidateExperience/en/sites/CX/job/5920/?utm_medium=jobshare&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>TX</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Garmin</t>
+          <t>Northrop Grumman</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -5212,21 +8317,36 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Olathe, KS - Summer / 2023</t>
+          <t>Baltimore, MD - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://www.northropgrumman.com/jobs/?search=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Baltimore</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>MD</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Leidos</t>
+          <t>The Home Depot</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -5235,21 +8355,36 @@
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Tampa, FL - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://careers.homedepot.com/job-search-results/?keyword=Software+Engineer+Intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>598</v>
+        <v>635</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Nuance</t>
+          <t>Cardinal Health</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -5258,21 +8393,36 @@
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Remote - Summer / 2023</t>
+          <t>Dublin, OH - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://jobs.cardinalhealth.com/search/searchjobs?categoryid=1fe13bb0-aa61-47d4-827d-d835358512d7&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Dublin</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>OH</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Principal Financial Group</t>
+          <t>FINRA</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -5281,21 +8431,36 @@
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Des Moines, IA or Remote - Summer / 2023</t>
+          <t>Rockville, MD - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://finra.wd1.myworkdayjobs.com/FINRA/0/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Rockville</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>MD</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>601</v>
+        <v>638</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Starbucks</t>
+          <t>Netsmart</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -5304,21 +8469,36 @@
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Seattle, WA - Summer / 2023</t>
+          <t>Overland Park, KS - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>https://ntst.wd1.myworkdayjobs.com/Careers?q=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Overland Park</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>KS</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>602</v>
+        <v>641</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>State Farm</t>
+          <t>Wabtec</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -5327,21 +8507,36 @@
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Richardson, TX - Summer / 2023</t>
+          <t>Erie, PA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>https://wabtec.wd1.myworkdayjobs.com/wabtec_careers/0/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Erie</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>608</v>
+        <v>648</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Caterpillar</t>
+          <t>Brown Brothers Harriman</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>27.9</v>
+        <v>25</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -5350,21 +8545,36 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Chicago, IL - Summer / 2023</t>
+          <t>New York City, NY - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>https://bbh.wd5.myworkdayjobs.com/BBH/jobs?q=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>NY</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>Ceridian</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>27.5</v>
+        <v>25</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -5373,21 +8583,36 @@
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Cleveland, OH - Summer / 2023</t>
+          <t>Toronto, Canada - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>https://jobs.dayforcehcm.com/mydayforce/alljobs?searchText=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Canada</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Ansys</t>
+          <t>Electronic Arts</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -5396,21 +8621,36 @@
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Canonsburg, PA - Spring / 2023</t>
+          <t>Orlando, FL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>https://ea.gr8people.com/jobs/174100/gameplay-software-engineer-intern?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Orlando</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>FL</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>623</v>
+        <v>663</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>National Instruments</t>
+          <t>General Dynamics Mission Systems</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -5419,21 +8659,36 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Austin, TX - Summer / 2023</t>
+          <t>Pittsburgh, PA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>https://gdmissionsystems.com/careers/job-search?state=eyJ3aGF0IjoiaW50ZXJuIiwid2hlcmUiOiIiLCJJc1Rlc3RNb2RlIjoiIiwiYWRkcmVzcyI6IltdIn0%3D&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Pittsburgh</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>PA</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Northrop Grumman</t>
+          <t>Kimberly-Clark</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -5442,21 +8697,36 @@
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Baltimore, MD - Summer / 2023</t>
+          <t>Atlanta, GA - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>https://www.careers.kimberly-clark.com/en/search?ref=levels.fyi#q=intern&amp;sort=relevancy</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>Atlanta</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>GA</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>628</v>
+        <v>685</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>The Home Depot</t>
+          <t>The Chernin Group</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -5466,20 +8736,35 @@
       <c r="E219" t="inlineStr">
         <is>
           <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>https://boards.greenhouse.io/tcgcapital/jobs/6422158002?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>635</v>
+        <v>688</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Cardinal Health</t>
+          <t>Transmarket Group</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -5488,21 +8773,36 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Dublin, OH - Summer / 2023</t>
+          <t>Chicago, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>https://apply.workable.com/transmarket-operations-llc/j/79695E0F85/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>Chicago</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>636</v>
+        <v>715</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>FINRA</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>26</v>
+        <v>23.92</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -5511,21 +8811,36 @@
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Rockville, MD - Summer / 2023</t>
+          <t>Toronto, Canada - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>https://jobs.amd.com/search/?q=&amp;q2=&amp;alertId=&amp;locationsearch=&amp;title=2022&amp;location=&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Canada</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>638</v>
+        <v>718</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Netsmart</t>
+          <t>Parker Hannifin</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>26</v>
+        <v>23.4</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -5534,21 +8849,36 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Overland Park, KS - Summer / 2023</t>
+          <t>Mayfield Heights, Ohio - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>https://parkercareers.ttcportals.com/search/jobs?q=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>Mayfield Heights</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Ohio</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>641</v>
+        <v>725</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Wabtec</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -5557,21 +8887,36 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Erie, PA - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>https://jobs.cvshealth.com/job-search-results/?keyword=engineer+intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>648</v>
+        <v>733</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Brown Brothers Harriman</t>
+          <t>Rockwell Automation</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -5580,21 +8925,36 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>New York City, NY - Summer / 2023</t>
+          <t>Milwaukee, WI - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>https://rockwellautomation.wd1.myworkdayjobs.com/External_Rockwell_Automation/2/refreshFacet/318c8bb6f553100021d223d9780d30be?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>Milwaukee</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>WI</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>651</v>
+        <v>743</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Ceridian</t>
+          <t>Genworth Financial</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -5603,21 +8963,36 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Toronto, Canada - Summer / 2023</t>
+          <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>https://gnw.wd1.myworkdayjobs.com/es/GNW/details/Internship-Development-Program_REQ-220444-1?q=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>658</v>
+        <v>745</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Electronic Arts</t>
+          <t>Honda Aircraft</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -5626,21 +9001,36 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Orlando, FL - Summer / 2023</t>
+          <t>Greensboro, NC - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>https://www.hondajet.com/en/Careers/Internship?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>Greensboro</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>NC</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>General Dynamics Mission Systems</t>
+          <t>TJX</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -5649,21 +9039,36 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA - Summer / 2023</t>
+          <t>Rhode Island - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>https://jobs.tjx.com/global/en/search-results?keywords=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>Rhode Island</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>667</v>
+        <v>758</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Kimberly-Clark</t>
+          <t>DTV Innovations</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -5672,21 +9077,36 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Atlanta, GA - Summer / 2023</t>
+          <t>Elgin, IL - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>http://www.dtvinnovations.com/careers?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>Elgin</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>IL</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>684</v>
+        <v>759</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>The Chernin Group</t>
+          <t>Duck Creek Technologies</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -5696,20 +9116,35 @@
       <c r="E229" t="inlineStr">
         <is>
           <t>Remote - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>https://www.duckcreek.com/careers/?ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>Remote</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Remote</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>687</v>
+        <v>783</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transmarket Group</t>
+          <t>Rocket Companies</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -5718,21 +9153,36 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Chicago, IL - Summer / 2023</t>
+          <t>Detroit, MI - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>https://www.myrocketcareer.com/listjobs/?keyword=intern&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>Detroit</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>MI</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>709</v>
+        <v>802</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Marvell</t>
+          <t>Ocado</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>24</v>
+        <v>17.31</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -5741,21 +9191,36 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Toronto, Canada - Winter / 2023</t>
+          <t>London, United Kingdom - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>https://careers.ocadogroup.com/search?q=intern&amp;size=10&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>London</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>United Kingdom</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>714</v>
+        <v>807</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Roku</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>23.92</v>
+        <v>16.55</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -5764,375 +9229,22 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Toronto, Canada - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
-        <v>717</v>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>Parker Hannifin</t>
-        </is>
-      </c>
-      <c r="C233" t="n">
-        <v>23.4</v>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>Mayfield Heights, Ohio - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>Ericsson</t>
-        </is>
-      </c>
-      <c r="C234" t="n">
-        <v>23</v>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>Montreal, Canada - Winter / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>Nokia</t>
-        </is>
-      </c>
-      <c r="C235" t="n">
-        <v>23</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>Ottawa, Canada - Winter / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Rockwell Automation</t>
-        </is>
-      </c>
-      <c r="C236" t="n">
-        <v>23</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>Milwaukee, WI - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Genworth Financial</t>
-        </is>
-      </c>
-      <c r="C237" t="n">
-        <v>22</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>Remote - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>Honda Aircraft</t>
-        </is>
-      </c>
-      <c r="C238" t="n">
-        <v>22</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>Greensboro, NC - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>Johnson Controls</t>
-        </is>
-      </c>
-      <c r="C239" t="n">
-        <v>22</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>Seattle, WA - Spring / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B240" t="inlineStr">
-        <is>
-          <t>TJX</t>
-        </is>
-      </c>
-      <c r="C240" t="n">
-        <v>22</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>Rhode Island - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>Workday</t>
-        </is>
-      </c>
-      <c r="C241" t="n">
-        <v>21.01</v>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>Vancouver, Canada - Winter / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B242" t="inlineStr">
-        <is>
-          <t>DTV Innovations</t>
-        </is>
-      </c>
-      <c r="C242" t="n">
-        <v>21</v>
-      </c>
-      <c r="D242" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>Elgin, IL - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>Duck Creek Technologies</t>
-        </is>
-      </c>
-      <c r="C243" t="n">
-        <v>21</v>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>Remote - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B244" t="inlineStr">
-        <is>
-          <t>Signify</t>
-        </is>
-      </c>
-      <c r="C244" t="n">
-        <v>21</v>
-      </c>
-      <c r="D244" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>Atlanta, GA - Spring / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>Rocket Companies</t>
-        </is>
-      </c>
-      <c r="C245" t="n">
-        <v>20</v>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>Detroit, MI - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>RBC</t>
-        </is>
-      </c>
-      <c r="C246" t="n">
-        <v>20</v>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>Toronto, ON - Winter / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
-        <v>800</v>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>Ocado</t>
-        </is>
-      </c>
-      <c r="C247" t="n">
-        <v>17.31</v>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>London, United Kingdom - Summer / 2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
-        <v>805</v>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>Roku</t>
-        </is>
-      </c>
-      <c r="C248" t="n">
-        <v>16.55</v>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Apply</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr">
-        <is>
           <t>Cambridge, England - Summer / 2023</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>https://www.roku.com/jobs/listing?search=intern&amp;dept=Software+Engineering&amp;ref=levels.fyi</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>Cambridge</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>England</t>
         </is>
       </c>
     </row>
